--- a/public/assets/import-inventory.xlsx
+++ b/public/assets/import-inventory.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t xml:space="preserve">Item Category</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Item Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Item Quantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country</t>
   </si>
   <si>
@@ -76,76 +79,119 @@
     <t xml:space="preserve">Order Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Base Currency</t>
+    <t xml:space="preserve">Base Currency (yes/no)</t>
   </si>
   <si>
     <t xml:space="preserve">Exchange Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Reagent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500 g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient Agar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0003B</t>
+    <t xml:space="preserve">Unit Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampicillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT0003B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">Muhimbili</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand Name</t>
+    <t xml:space="preserve">brand</t>
   </si>
   <si>
     <t xml:space="preserve">Kas medics</t>
   </si>
   <si>
-    <t xml:space="preserve"> ASM- DX-FF14176-04</t>
+    <t xml:space="preserve"> ASM- DX-FF14176-07</t>
   </si>
   <si>
     <t xml:space="preserve">21 July 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">25 g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cystine-Lactose-Electrolyte Deficient (CLED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0301B</t>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25ml bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefepime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT0417B</t>
   </si>
   <si>
     <t xml:space="preserve">KCMC</t>
   </si>
   <si>
-    <t xml:space="preserve">Mueller Hinton Agar (MHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0337B</t>
+    <t xml:space="preserve"> ASM- DX-FF14176-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Mar 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotrimoxazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT0052B</t>
   </si>
   <si>
     <t xml:space="preserve">Mbeya</t>
   </si>
   <si>
-    <t xml:space="preserve">MacConkey Agar (MAC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0115B</t>
+    <t xml:space="preserve">#27/010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pack</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Meropenem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT0771B</t>
   </si>
   <si>
     <t xml:space="preserve">Bugando</t>
   </si>
   <si>
-    <t xml:space="preserve">12 pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood agar base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0271B</t>
+    <t xml:space="preserve">Ciprofloxacin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT0425B</t>
   </si>
   <si>
     <t xml:space="preserve">Mnazi Mmojaa</t>
@@ -155,11 +201,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,6 +260,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,6 +391,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -366,17 +422,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="22.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -428,164 +484,239 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>28</v>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>28</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="4"/>
+      <c r="I4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>44131</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="T6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>200</v>
+      </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/public/assets/import-inventory.xlsx
+++ b/public/assets/import-inventory.xlsx
@@ -160,23 +160,7 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pack</t>
-    </r>
+    <t xml:space="preserve">12 pack</t>
   </si>
   <si>
     <t xml:space="preserve">Meropenem</t>
@@ -206,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,11 +244,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
